--- a/images/suwat-grade-1-2566.xlsx
+++ b/images/suwat-grade-1-2566.xlsx
@@ -592,6 +592,30 @@
     <xf numFmtId="49" fontId="10" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -612,30 +636,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -919,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,127 +946,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
     </row>
     <row r="2" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="J3" s="17" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="J3" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
     </row>
     <row r="4" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="18" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
     </row>
     <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="18" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
     </row>
     <row r="7" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1079,28 +1079,28 @@
       <c r="C8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="19" t="s">
+      <c r="E8" s="20"/>
+      <c r="F8" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
     </row>
     <row r="9" spans="1:21" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1112,56 +1112,56 @@
       <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="20" t="s">
+      <c r="D9" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="8">
         <v>6</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="8">
         <v>7</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="8">
         <v>8</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="8">
         <v>9</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="8">
         <v>10</v>
       </c>
-      <c r="P9" s="21">
+      <c r="P9" s="8">
         <v>11</v>
       </c>
-      <c r="Q9" s="21">
+      <c r="Q9" s="8">
         <v>12</v>
       </c>
-      <c r="R9" s="21">
+      <c r="R9" s="8">
         <v>13</v>
       </c>
-      <c r="S9" s="21">
+      <c r="S9" s="8">
         <v>14</v>
       </c>
-      <c r="T9" s="21">
+      <c r="T9" s="8">
         <v>15</v>
       </c>
-      <c r="U9" s="21">
+      <c r="U9" s="8">
         <v>16</v>
       </c>
     </row>
@@ -1175,10 +1175,10 @@
       <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="14"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="5">
         <v>5</v>
       </c>
@@ -1191,7 +1191,9 @@
       <c r="I10" s="5">
         <v>5</v>
       </c>
-      <c r="J10" s="5"/>
+      <c r="J10" s="5">
+        <v>10</v>
+      </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
@@ -1214,10 +1216,10 @@
       <c r="C11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="14"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="5">
         <v>5</v>
       </c>
@@ -1255,10 +1257,10 @@
       <c r="C12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="14"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="5">
         <v>5</v>
       </c>
@@ -1294,10 +1296,10 @@
       <c r="C13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="14"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="5">
         <v>5</v>
       </c>
@@ -1310,7 +1312,9 @@
       <c r="I13" s="5">
         <v>5</v>
       </c>
-      <c r="J13" s="5"/>
+      <c r="J13" s="5">
+        <v>10</v>
+      </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -1333,10 +1337,10 @@
       <c r="C14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="14"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="5">
         <v>5</v>
       </c>
@@ -1374,10 +1378,10 @@
       <c r="C15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="14"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="5">
         <v>5</v>
       </c>
@@ -1415,10 +1419,10 @@
       <c r="C16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="14"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="5">
         <v>5</v>
       </c>
@@ -1456,10 +1460,10 @@
       <c r="C17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="14"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="5">
         <v>5</v>
       </c>
@@ -1497,10 +1501,10 @@
       <c r="C18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="14"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="5">
         <v>5</v>
       </c>
@@ -1538,10 +1542,10 @@
       <c r="C19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="14"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="5">
         <v>5</v>
       </c>
@@ -1577,10 +1581,10 @@
       <c r="C20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="14"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="5">
         <v>5</v>
       </c>
@@ -1618,10 +1622,10 @@
       <c r="C21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="14"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="5">
         <v>5</v>
       </c>
@@ -1657,10 +1661,10 @@
       <c r="C22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="14"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="5">
         <v>5</v>
       </c>
@@ -1698,10 +1702,10 @@
       <c r="C23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="14"/>
+      <c r="E23" s="12"/>
       <c r="F23" s="5">
         <v>5</v>
       </c>
@@ -1739,10 +1743,10 @@
       <c r="C24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="14"/>
+      <c r="E24" s="12"/>
       <c r="F24" s="5">
         <v>5</v>
       </c>
@@ -1780,10 +1784,10 @@
       <c r="C25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="5">
         <v>5</v>
       </c>
@@ -1821,10 +1825,10 @@
       <c r="C26" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="14"/>
+      <c r="E26" s="12"/>
       <c r="F26" s="5">
         <v>5</v>
       </c>
@@ -1837,7 +1841,9 @@
       <c r="I26" s="5">
         <v>5</v>
       </c>
-      <c r="J26" s="5"/>
+      <c r="J26" s="5">
+        <v>10</v>
+      </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -1860,10 +1866,10 @@
       <c r="C27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="14"/>
+      <c r="E27" s="12"/>
       <c r="F27" s="5">
         <v>5</v>
       </c>
@@ -1901,10 +1907,10 @@
       <c r="C28" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="14"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="5">
         <v>5</v>
       </c>
@@ -1940,15 +1946,15 @@
       <c r="C29" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="14"/>
+      <c r="E29" s="12"/>
       <c r="F29" s="5">
         <v>5</v>
       </c>
       <c r="G29" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H29" s="5">
         <v>5</v>
@@ -1981,10 +1987,10 @@
       <c r="C30" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="14"/>
+      <c r="E30" s="12"/>
       <c r="F30" s="5">
         <v>5</v>
       </c>
@@ -2022,10 +2028,10 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="14"/>
+      <c r="E31" s="12"/>
       <c r="F31" s="5">
         <v>5</v>
       </c>
@@ -2054,41 +2060,60 @@
       <c r="U31" s="5"/>
     </row>
     <row r="32" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="16" t="s">
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
     </row>
     <row r="33" spans="1:5" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A32:E33"/>
+    <mergeCell ref="D1:U1"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
     <mergeCell ref="F32:U32"/>
     <mergeCell ref="J3:U4"/>
     <mergeCell ref="J5:U5"/>
@@ -2105,25 +2130,6 @@
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A32:E33"/>
-    <mergeCell ref="D1:U1"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>

--- a/images/suwat-grade-1-2566.xlsx
+++ b/images/suwat-grade-1-2566.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
   <si>
     <t>มหาวิทยาลัยราชภัฏเพชรบุรี</t>
   </si>
@@ -217,6 +217,15 @@
   </si>
   <si>
     <t>แบบฟอร์มการเช็คชื่อเข้าเรียน (5)</t>
+  </si>
+  <si>
+    <t>จัดทำ Slide (Google Slide + Extension)(10)</t>
+  </si>
+  <si>
+    <t>จัดทำบทเรียนด้วย Google Doc + Extension (10)</t>
+  </si>
+  <si>
+    <t>ทำงานวิจัยด้วย ChatDOC (10)</t>
   </si>
 </sst>
 </file>
@@ -919,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,7 +1111,7 @@
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
     </row>
-    <row r="9" spans="1:21" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1131,14 +1140,14 @@
       <c r="J9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K9" s="8">
-        <v>6</v>
-      </c>
-      <c r="L9" s="8">
-        <v>7</v>
-      </c>
-      <c r="M9" s="8">
-        <v>8</v>
+      <c r="K9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N9" s="8">
         <v>9</v>

--- a/images/suwat-grade-1-2566.xlsx
+++ b/images/suwat-grade-1-2566.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -219,13 +219,13 @@
     <t>แบบฟอร์มการเช็คชื่อเข้าเรียน (5)</t>
   </si>
   <si>
-    <t>จัดทำ Slide (Google Slide + Extension)(10)</t>
-  </si>
-  <si>
     <t>จัดทำบทเรียนด้วย Google Doc + Extension (10)</t>
   </si>
   <si>
     <t>ทำงานวิจัยด้วย ChatDOC (10)</t>
+  </si>
+  <si>
+    <t>จัดทำ Canva (Powerpoint) (10)</t>
   </si>
 </sst>
 </file>
@@ -607,22 +607,19 @@
     <xf numFmtId="0" fontId="13" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -634,17 +631,20 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,127 +955,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="19" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
     </row>
     <row r="2" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="J3" s="10" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="J3" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
     </row>
     <row r="4" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="11" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
     </row>
     <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="11" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
     </row>
     <row r="7" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1088,28 +1088,28 @@
       <c r="C8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="13" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
     </row>
     <row r="9" spans="1:21" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1121,10 +1121,10 @@
       <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="21"/>
+      <c r="D9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="12"/>
       <c r="F9" s="7" t="s">
         <v>60</v>
       </c>
@@ -1141,13 +1141,13 @@
         <v>64</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="N9" s="8">
         <v>9</v>
@@ -1184,10 +1184,10 @@
       <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="5">
         <v>5</v>
       </c>
@@ -1203,7 +1203,9 @@
       <c r="J10" s="5">
         <v>10</v>
       </c>
-      <c r="K10" s="5"/>
+      <c r="K10" s="5">
+        <v>10</v>
+      </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -1225,10 +1227,10 @@
       <c r="C11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="5">
         <v>5</v>
       </c>
@@ -1244,7 +1246,9 @@
       <c r="J11" s="5">
         <v>10</v>
       </c>
-      <c r="K11" s="5"/>
+      <c r="K11" s="5">
+        <v>10</v>
+      </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -1266,10 +1270,10 @@
       <c r="C12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="5">
         <v>5</v>
       </c>
@@ -1282,7 +1286,9 @@
       <c r="I12" s="5">
         <v>5</v>
       </c>
-      <c r="J12" s="5"/>
+      <c r="J12" s="5">
+        <v>10</v>
+      </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
@@ -1305,10 +1311,10 @@
       <c r="C13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="12"/>
+      <c r="E13" s="13"/>
       <c r="F13" s="5">
         <v>5</v>
       </c>
@@ -1324,7 +1330,9 @@
       <c r="J13" s="5">
         <v>10</v>
       </c>
-      <c r="K13" s="5"/>
+      <c r="K13" s="5">
+        <v>10</v>
+      </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -1346,10 +1354,10 @@
       <c r="C14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="12"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="5">
         <v>5</v>
       </c>
@@ -1387,10 +1395,10 @@
       <c r="C15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="13"/>
       <c r="F15" s="5">
         <v>5</v>
       </c>
@@ -1406,7 +1414,9 @@
       <c r="J15" s="5">
         <v>10</v>
       </c>
-      <c r="K15" s="5"/>
+      <c r="K15" s="5">
+        <v>10</v>
+      </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
@@ -1428,10 +1438,10 @@
       <c r="C16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="12"/>
+      <c r="E16" s="13"/>
       <c r="F16" s="5">
         <v>5</v>
       </c>
@@ -1469,10 +1479,10 @@
       <c r="C17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="12"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="5">
         <v>5</v>
       </c>
@@ -1510,10 +1520,10 @@
       <c r="C18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="12"/>
+      <c r="E18" s="13"/>
       <c r="F18" s="5">
         <v>5</v>
       </c>
@@ -1529,7 +1539,9 @@
       <c r="J18" s="5">
         <v>10</v>
       </c>
-      <c r="K18" s="5"/>
+      <c r="K18" s="5">
+        <v>10</v>
+      </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -1551,10 +1563,10 @@
       <c r="C19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="12"/>
+      <c r="E19" s="13"/>
       <c r="F19" s="5">
         <v>5</v>
       </c>
@@ -1567,7 +1579,9 @@
       <c r="I19" s="5">
         <v>5</v>
       </c>
-      <c r="J19" s="5"/>
+      <c r="J19" s="5">
+        <v>10</v>
+      </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
@@ -1590,10 +1604,10 @@
       <c r="C20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="12"/>
+      <c r="E20" s="13"/>
       <c r="F20" s="5">
         <v>5</v>
       </c>
@@ -1609,7 +1623,9 @@
       <c r="J20" s="5">
         <v>10</v>
       </c>
-      <c r="K20" s="5"/>
+      <c r="K20" s="5">
+        <v>10</v>
+      </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -1631,10 +1647,10 @@
       <c r="C21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="12"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="5">
         <v>5</v>
       </c>
@@ -1647,8 +1663,12 @@
       <c r="I21" s="5">
         <v>5</v>
       </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="J21" s="5">
+        <v>10</v>
+      </c>
+      <c r="K21" s="5">
+        <v>10</v>
+      </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -1670,10 +1690,10 @@
       <c r="C22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="12"/>
+      <c r="E22" s="13"/>
       <c r="F22" s="5">
         <v>5</v>
       </c>
@@ -1689,7 +1709,9 @@
       <c r="J22" s="5">
         <v>10</v>
       </c>
-      <c r="K22" s="5"/>
+      <c r="K22" s="5">
+        <v>10</v>
+      </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
@@ -1711,10 +1733,10 @@
       <c r="C23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="12"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="5">
         <v>5</v>
       </c>
@@ -1730,7 +1752,9 @@
       <c r="J23" s="5">
         <v>10</v>
       </c>
-      <c r="K23" s="5"/>
+      <c r="K23" s="5">
+        <v>10</v>
+      </c>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
@@ -1752,10 +1776,10 @@
       <c r="C24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="12"/>
+      <c r="E24" s="13"/>
       <c r="F24" s="5">
         <v>5</v>
       </c>
@@ -1771,7 +1795,9 @@
       <c r="J24" s="5">
         <v>10</v>
       </c>
-      <c r="K24" s="5"/>
+      <c r="K24" s="5">
+        <v>10</v>
+      </c>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
@@ -1793,10 +1819,10 @@
       <c r="C25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="12"/>
+      <c r="E25" s="13"/>
       <c r="F25" s="5">
         <v>5</v>
       </c>
@@ -1834,10 +1860,10 @@
       <c r="C26" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="12"/>
+      <c r="E26" s="13"/>
       <c r="F26" s="5">
         <v>5</v>
       </c>
@@ -1853,7 +1879,9 @@
       <c r="J26" s="5">
         <v>10</v>
       </c>
-      <c r="K26" s="5"/>
+      <c r="K26" s="5">
+        <v>10</v>
+      </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
@@ -1875,10 +1903,10 @@
       <c r="C27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="12"/>
+      <c r="E27" s="13"/>
       <c r="F27" s="5">
         <v>5</v>
       </c>
@@ -1894,7 +1922,9 @@
       <c r="J27" s="5">
         <v>10</v>
       </c>
-      <c r="K27" s="5"/>
+      <c r="K27" s="5">
+        <v>10</v>
+      </c>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
@@ -1916,10 +1946,10 @@
       <c r="C28" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="12"/>
+      <c r="E28" s="13"/>
       <c r="F28" s="5">
         <v>5</v>
       </c>
@@ -1932,7 +1962,9 @@
       <c r="I28" s="5">
         <v>5</v>
       </c>
-      <c r="J28" s="5"/>
+      <c r="J28" s="5">
+        <v>10</v>
+      </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
@@ -1955,10 +1987,10 @@
       <c r="C29" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="12"/>
+      <c r="E29" s="13"/>
       <c r="F29" s="5">
         <v>5</v>
       </c>
@@ -1996,10 +2028,10 @@
       <c r="C30" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="12"/>
+      <c r="E30" s="13"/>
       <c r="F30" s="5">
         <v>5</v>
       </c>
@@ -2015,7 +2047,9 @@
       <c r="J30" s="5">
         <v>10</v>
       </c>
-      <c r="K30" s="5"/>
+      <c r="K30" s="5">
+        <v>10</v>
+      </c>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -2037,10 +2071,10 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="12"/>
+      <c r="E31" s="13"/>
       <c r="F31" s="5">
         <v>5</v>
       </c>
@@ -2056,7 +2090,9 @@
       <c r="J31" s="5">
         <v>10</v>
       </c>
-      <c r="K31" s="5"/>
+      <c r="K31" s="5">
+        <v>10</v>
+      </c>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -2069,41 +2105,60 @@
       <c r="U31" s="5"/>
     </row>
     <row r="32" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="9" t="s">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
     </row>
     <row r="33" spans="1:5" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="F32:U32"/>
+    <mergeCell ref="J3:U4"/>
+    <mergeCell ref="J5:U5"/>
+    <mergeCell ref="J6:U6"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F8:U8"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="A32:E33"/>
     <mergeCell ref="D1:U1"/>
     <mergeCell ref="D8:E8"/>
@@ -2120,25 +2175,6 @@
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="F32:U32"/>
-    <mergeCell ref="J3:U4"/>
-    <mergeCell ref="J5:U5"/>
-    <mergeCell ref="J6:U6"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F8:U8"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>

--- a/images/suwat-grade-1-2566.xlsx
+++ b/images/suwat-grade-1-2566.xlsx
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,7 +1446,7 @@
         <v>5</v>
       </c>
       <c r="G16" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H16" s="5">
         <v>5</v>
@@ -1457,7 +1457,9 @@
       <c r="J16" s="5">
         <v>10</v>
       </c>
-      <c r="K16" s="5"/>
+      <c r="K16" s="5">
+        <v>10</v>
+      </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
@@ -2006,7 +2008,9 @@
       <c r="J29" s="5">
         <v>10</v>
       </c>
-      <c r="K29" s="5"/>
+      <c r="K29" s="5">
+        <v>10</v>
+      </c>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>

--- a/images/suwat-grade-1-2566.xlsx
+++ b/images/suwat-grade-1-2566.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="70">
   <si>
     <t>มหาวิทยาลัยราชภัฏเพชรบุรี</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>จัดทำ Canva (Powerpoint) (10)</t>
+  </si>
+  <si>
+    <t>AR (10)</t>
   </si>
 </sst>
 </file>
@@ -417,7 +420,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -577,11 +580,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
@@ -607,6 +634,9 @@
     <xf numFmtId="0" fontId="13" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -645,6 +675,15 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -928,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,127 +994,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
     </row>
     <row r="2" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="J3" s="18" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="J3" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
     </row>
     <row r="4" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="19" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
     </row>
     <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="19" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
     </row>
     <row r="7" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1088,28 +1127,28 @@
       <c r="C8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="20" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
     </row>
     <row r="9" spans="1:21" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1121,10 +1160,10 @@
       <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="12"/>
+      <c r="D9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="13"/>
       <c r="F9" s="7" t="s">
         <v>60</v>
       </c>
@@ -1140,17 +1179,17 @@
       <c r="J9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="N9" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="N9" s="8">
-        <v>9</v>
       </c>
       <c r="O9" s="8">
         <v>10</v>
@@ -1184,10 +1223,10 @@
       <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="5">
         <v>5</v>
       </c>
@@ -1206,7 +1245,9 @@
       <c r="K10" s="5">
         <v>10</v>
       </c>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5">
+        <v>10</v>
+      </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -1227,10 +1268,10 @@
       <c r="C11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="14"/>
       <c r="F11" s="5">
         <v>5</v>
       </c>
@@ -1249,7 +1290,9 @@
       <c r="K11" s="5">
         <v>10</v>
       </c>
-      <c r="L11" s="5"/>
+      <c r="L11" s="9">
+        <v>10</v>
+      </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -1270,10 +1313,10 @@
       <c r="C12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="5">
         <v>5</v>
       </c>
@@ -1289,8 +1332,12 @@
       <c r="J12" s="5">
         <v>10</v>
       </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="K12" s="5">
+        <v>10</v>
+      </c>
+      <c r="L12" s="9">
+        <v>10</v>
+      </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
@@ -1311,10 +1358,10 @@
       <c r="C13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="5">
         <v>5</v>
       </c>
@@ -1333,7 +1380,9 @@
       <c r="K13" s="5">
         <v>10</v>
       </c>
-      <c r="L13" s="5"/>
+      <c r="L13" s="9">
+        <v>10</v>
+      </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
@@ -1354,10 +1403,10 @@
       <c r="C14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="14"/>
       <c r="F14" s="5">
         <v>5</v>
       </c>
@@ -1374,7 +1423,7 @@
         <v>10</v>
       </c>
       <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
+      <c r="L14" s="9"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
@@ -1395,10 +1444,10 @@
       <c r="C15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="5">
         <v>5</v>
       </c>
@@ -1417,7 +1466,9 @@
       <c r="K15" s="5">
         <v>10</v>
       </c>
-      <c r="L15" s="5"/>
+      <c r="L15" s="9">
+        <v>10</v>
+      </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
@@ -1438,10 +1489,10 @@
       <c r="C16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="13"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="5">
         <v>5</v>
       </c>
@@ -1460,7 +1511,9 @@
       <c r="K16" s="5">
         <v>10</v>
       </c>
-      <c r="L16" s="5"/>
+      <c r="L16" s="9">
+        <v>10</v>
+      </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
@@ -1481,10 +1534,10 @@
       <c r="C17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="13"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="5">
         <v>5</v>
       </c>
@@ -1501,7 +1554,7 @@
         <v>10</v>
       </c>
       <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
+      <c r="L17" s="9"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
@@ -1522,10 +1575,10 @@
       <c r="C18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="13"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="5">
         <v>5</v>
       </c>
@@ -1544,7 +1597,9 @@
       <c r="K18" s="5">
         <v>10</v>
       </c>
-      <c r="L18" s="5"/>
+      <c r="L18" s="9">
+        <v>10</v>
+      </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
@@ -1565,10 +1620,10 @@
       <c r="C19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="13"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="5">
         <v>5</v>
       </c>
@@ -1584,8 +1639,12 @@
       <c r="J19" s="5">
         <v>10</v>
       </c>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
+      <c r="K19" s="5">
+        <v>10</v>
+      </c>
+      <c r="L19" s="9">
+        <v>10</v>
+      </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
@@ -1606,10 +1665,10 @@
       <c r="C20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="13"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="5">
         <v>5</v>
       </c>
@@ -1628,7 +1687,9 @@
       <c r="K20" s="5">
         <v>10</v>
       </c>
-      <c r="L20" s="5"/>
+      <c r="L20" s="9">
+        <v>10</v>
+      </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
@@ -1649,10 +1710,10 @@
       <c r="C21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="13"/>
+      <c r="E21" s="14"/>
       <c r="F21" s="5">
         <v>5</v>
       </c>
@@ -1671,7 +1732,9 @@
       <c r="K21" s="5">
         <v>10</v>
       </c>
-      <c r="L21" s="5"/>
+      <c r="L21" s="9">
+        <v>10</v>
+      </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
@@ -1692,10 +1755,10 @@
       <c r="C22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="13"/>
+      <c r="E22" s="14"/>
       <c r="F22" s="5">
         <v>5</v>
       </c>
@@ -1714,7 +1777,9 @@
       <c r="K22" s="5">
         <v>10</v>
       </c>
-      <c r="L22" s="5"/>
+      <c r="L22" s="9">
+        <v>10</v>
+      </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
@@ -1735,10 +1800,10 @@
       <c r="C23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="13"/>
+      <c r="E23" s="14"/>
       <c r="F23" s="5">
         <v>5</v>
       </c>
@@ -1757,7 +1822,9 @@
       <c r="K23" s="5">
         <v>10</v>
       </c>
-      <c r="L23" s="5"/>
+      <c r="L23" s="9">
+        <v>10</v>
+      </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
@@ -1778,10 +1845,10 @@
       <c r="C24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="13"/>
+      <c r="E24" s="14"/>
       <c r="F24" s="5">
         <v>5</v>
       </c>
@@ -1800,7 +1867,9 @@
       <c r="K24" s="5">
         <v>10</v>
       </c>
-      <c r="L24" s="5"/>
+      <c r="L24" s="9">
+        <v>10</v>
+      </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
@@ -1821,10 +1890,10 @@
       <c r="C25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="14"/>
       <c r="F25" s="5">
         <v>5</v>
       </c>
@@ -1841,7 +1910,7 @@
         <v>10</v>
       </c>
       <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
+      <c r="L25" s="9"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
@@ -1862,10 +1931,10 @@
       <c r="C26" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="13"/>
+      <c r="E26" s="14"/>
       <c r="F26" s="5">
         <v>5</v>
       </c>
@@ -1884,7 +1953,9 @@
       <c r="K26" s="5">
         <v>10</v>
       </c>
-      <c r="L26" s="5"/>
+      <c r="L26" s="9">
+        <v>10</v>
+      </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
@@ -1905,10 +1976,10 @@
       <c r="C27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="13"/>
+      <c r="E27" s="14"/>
       <c r="F27" s="5">
         <v>5</v>
       </c>
@@ -1927,7 +1998,9 @@
       <c r="K27" s="5">
         <v>10</v>
       </c>
-      <c r="L27" s="5"/>
+      <c r="L27" s="9">
+        <v>10</v>
+      </c>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
@@ -1948,10 +2021,10 @@
       <c r="C28" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="13"/>
+      <c r="E28" s="14"/>
       <c r="F28" s="5">
         <v>5</v>
       </c>
@@ -1968,7 +2041,9 @@
         <v>10</v>
       </c>
       <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
+      <c r="L28" s="9">
+        <v>10</v>
+      </c>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
@@ -1989,10 +2064,10 @@
       <c r="C29" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="13"/>
+      <c r="E29" s="14"/>
       <c r="F29" s="5">
         <v>5</v>
       </c>
@@ -2011,7 +2086,9 @@
       <c r="K29" s="5">
         <v>10</v>
       </c>
-      <c r="L29" s="5"/>
+      <c r="L29" s="9">
+        <v>10</v>
+      </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
@@ -2032,10 +2109,10 @@
       <c r="C30" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="13"/>
+      <c r="E30" s="14"/>
       <c r="F30" s="5">
         <v>5</v>
       </c>
@@ -2054,7 +2131,9 @@
       <c r="K30" s="5">
         <v>10</v>
       </c>
-      <c r="L30" s="5"/>
+      <c r="L30" s="9">
+        <v>10</v>
+      </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
@@ -2075,10 +2154,10 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="13"/>
+      <c r="E31" s="14"/>
       <c r="F31" s="5">
         <v>5</v>
       </c>
@@ -2097,7 +2176,9 @@
       <c r="K31" s="5">
         <v>10</v>
       </c>
-      <c r="L31" s="5"/>
+      <c r="L31" s="9">
+        <v>10</v>
+      </c>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
@@ -2109,38 +2190,38 @@
       <c r="U31" s="5"/>
     </row>
     <row r="32" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="17" t="s">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
     </row>
     <row r="33" spans="1:5" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="35">

--- a/images/suwat-grade-1-2566.xlsx
+++ b/images/suwat-grade-1-2566.xlsx
@@ -219,9 +219,6 @@
     <t>แบบฟอร์มการเช็คชื่อเข้าเรียน (5)</t>
   </si>
   <si>
-    <t>จัดทำบทเรียนด้วย Google Doc + Extension (10)</t>
-  </si>
-  <si>
     <t>ทำงานวิจัยด้วย ChatDOC (10)</t>
   </si>
   <si>
@@ -229,6 +226,9 @@
   </si>
   <si>
     <t>AR (10)</t>
+  </si>
+  <si>
+    <t>แผนการสอนโดยใช้ AI (10)</t>
   </si>
 </sst>
 </file>
@@ -608,7 +608,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
@@ -637,6 +637,42 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -649,41 +685,8 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -967,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,127 +997,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
     </row>
     <row r="2" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="J3" s="19" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="J3" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
     </row>
     <row r="4" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="20" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
     </row>
     <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="20" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
     </row>
     <row r="7" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1127,28 +1130,28 @@
       <c r="C8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="21" t="s">
+      <c r="E8" s="24"/>
+      <c r="F8" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
     </row>
     <row r="9" spans="1:21" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1160,10 +1163,10 @@
       <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="13"/>
+      <c r="D9" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="25"/>
       <c r="F9" s="7" t="s">
         <v>60</v>
       </c>
@@ -1179,17 +1182,17 @@
       <c r="J9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K9" s="23" t="s">
+      <c r="K9" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="L9" s="25" t="s">
+      <c r="M9" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="N9" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="O9" s="8">
         <v>10</v>
@@ -1223,10 +1226,10 @@
       <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="14"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="5">
         <v>5</v>
       </c>
@@ -1248,7 +1251,9 @@
       <c r="L10" s="5">
         <v>10</v>
       </c>
-      <c r="M10" s="5"/>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
@@ -1268,10 +1273,10 @@
       <c r="C11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="14"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="5">
         <v>5</v>
       </c>
@@ -1293,7 +1298,9 @@
       <c r="L11" s="9">
         <v>10</v>
       </c>
-      <c r="M11" s="5"/>
+      <c r="M11" s="5">
+        <v>10</v>
+      </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
@@ -1313,10 +1320,10 @@
       <c r="C12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="14"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="5">
         <v>5</v>
       </c>
@@ -1338,7 +1345,9 @@
       <c r="L12" s="9">
         <v>10</v>
       </c>
-      <c r="M12" s="5"/>
+      <c r="M12" s="5">
+        <v>10</v>
+      </c>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
@@ -1358,10 +1367,10 @@
       <c r="C13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="14"/>
+      <c r="E13" s="13"/>
       <c r="F13" s="5">
         <v>5</v>
       </c>
@@ -1383,7 +1392,9 @@
       <c r="L13" s="9">
         <v>10</v>
       </c>
-      <c r="M13" s="5"/>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
@@ -1403,10 +1414,10 @@
       <c r="C14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="14"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="5">
         <v>5</v>
       </c>
@@ -1422,9 +1433,15 @@
       <c r="J14" s="5">
         <v>10</v>
       </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="5"/>
+      <c r="K14" s="10">
+        <v>10</v>
+      </c>
+      <c r="L14" s="10">
+        <v>10</v>
+      </c>
+      <c r="M14" s="5">
+        <v>10</v>
+      </c>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
@@ -1444,10 +1461,10 @@
       <c r="C15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="14"/>
+      <c r="E15" s="13"/>
       <c r="F15" s="5">
         <v>5</v>
       </c>
@@ -1469,7 +1486,9 @@
       <c r="L15" s="9">
         <v>10</v>
       </c>
-      <c r="M15" s="5"/>
+      <c r="M15" s="5">
+        <v>10</v>
+      </c>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
@@ -1489,10 +1508,10 @@
       <c r="C16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="14"/>
+      <c r="E16" s="13"/>
       <c r="F16" s="5">
         <v>5</v>
       </c>
@@ -1514,7 +1533,9 @@
       <c r="L16" s="9">
         <v>10</v>
       </c>
-      <c r="M16" s="5"/>
+      <c r="M16" s="5">
+        <v>10</v>
+      </c>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
@@ -1534,10 +1555,10 @@
       <c r="C17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="14"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="5">
         <v>5</v>
       </c>
@@ -1553,9 +1574,15 @@
       <c r="J17" s="5">
         <v>10</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="5"/>
+      <c r="K17" s="5">
+        <v>10</v>
+      </c>
+      <c r="L17" s="9">
+        <v>10</v>
+      </c>
+      <c r="M17" s="5">
+        <v>10</v>
+      </c>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
@@ -1575,10 +1602,10 @@
       <c r="C18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="14"/>
+      <c r="E18" s="13"/>
       <c r="F18" s="5">
         <v>5</v>
       </c>
@@ -1600,7 +1627,9 @@
       <c r="L18" s="9">
         <v>10</v>
       </c>
-      <c r="M18" s="5"/>
+      <c r="M18" s="5">
+        <v>10</v>
+      </c>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
@@ -1620,10 +1649,10 @@
       <c r="C19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="14"/>
+      <c r="E19" s="13"/>
       <c r="F19" s="5">
         <v>5</v>
       </c>
@@ -1645,7 +1674,9 @@
       <c r="L19" s="9">
         <v>10</v>
       </c>
-      <c r="M19" s="5"/>
+      <c r="M19" s="5">
+        <v>10</v>
+      </c>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
@@ -1665,10 +1696,10 @@
       <c r="C20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="14"/>
+      <c r="E20" s="13"/>
       <c r="F20" s="5">
         <v>5</v>
       </c>
@@ -1690,7 +1721,9 @@
       <c r="L20" s="9">
         <v>10</v>
       </c>
-      <c r="M20" s="5"/>
+      <c r="M20" s="5">
+        <v>10</v>
+      </c>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
@@ -1710,10 +1743,10 @@
       <c r="C21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="14"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="5">
         <v>5</v>
       </c>
@@ -1735,7 +1768,9 @@
       <c r="L21" s="9">
         <v>10</v>
       </c>
-      <c r="M21" s="5"/>
+      <c r="M21" s="5">
+        <v>10</v>
+      </c>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
@@ -1755,10 +1790,10 @@
       <c r="C22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="14"/>
+      <c r="E22" s="13"/>
       <c r="F22" s="5">
         <v>5</v>
       </c>
@@ -1780,7 +1815,9 @@
       <c r="L22" s="9">
         <v>10</v>
       </c>
-      <c r="M22" s="5"/>
+      <c r="M22" s="5">
+        <v>10</v>
+      </c>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
@@ -1800,10 +1837,10 @@
       <c r="C23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="14"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="5">
         <v>5</v>
       </c>
@@ -1825,7 +1862,9 @@
       <c r="L23" s="9">
         <v>10</v>
       </c>
-      <c r="M23" s="5"/>
+      <c r="M23" s="5">
+        <v>10</v>
+      </c>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
@@ -1845,10 +1884,10 @@
       <c r="C24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="14"/>
+      <c r="E24" s="13"/>
       <c r="F24" s="5">
         <v>5</v>
       </c>
@@ -1870,7 +1909,9 @@
       <c r="L24" s="9">
         <v>10</v>
       </c>
-      <c r="M24" s="5"/>
+      <c r="M24" s="5">
+        <v>10</v>
+      </c>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
@@ -1890,10 +1931,10 @@
       <c r="C25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="13"/>
       <c r="F25" s="5">
         <v>5</v>
       </c>
@@ -1909,9 +1950,15 @@
       <c r="J25" s="5">
         <v>10</v>
       </c>
-      <c r="K25" s="5"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="5"/>
+      <c r="K25" s="5">
+        <v>10</v>
+      </c>
+      <c r="L25" s="9">
+        <v>10</v>
+      </c>
+      <c r="M25" s="5">
+        <v>10</v>
+      </c>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
@@ -1931,10 +1978,10 @@
       <c r="C26" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="14"/>
+      <c r="E26" s="13"/>
       <c r="F26" s="5">
         <v>5</v>
       </c>
@@ -1956,7 +2003,9 @@
       <c r="L26" s="9">
         <v>10</v>
       </c>
-      <c r="M26" s="5"/>
+      <c r="M26" s="5">
+        <v>10</v>
+      </c>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
@@ -1976,10 +2025,10 @@
       <c r="C27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="14"/>
+      <c r="E27" s="13"/>
       <c r="F27" s="5">
         <v>5</v>
       </c>
@@ -2001,7 +2050,9 @@
       <c r="L27" s="9">
         <v>10</v>
       </c>
-      <c r="M27" s="5"/>
+      <c r="M27" s="5">
+        <v>10</v>
+      </c>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
@@ -2021,10 +2072,10 @@
       <c r="C28" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="14"/>
+      <c r="E28" s="13"/>
       <c r="F28" s="5">
         <v>5</v>
       </c>
@@ -2044,7 +2095,9 @@
       <c r="L28" s="9">
         <v>10</v>
       </c>
-      <c r="M28" s="5"/>
+      <c r="M28" s="5">
+        <v>10</v>
+      </c>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
@@ -2064,10 +2117,10 @@
       <c r="C29" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="14"/>
+      <c r="E29" s="13"/>
       <c r="F29" s="5">
         <v>5</v>
       </c>
@@ -2089,7 +2142,9 @@
       <c r="L29" s="9">
         <v>10</v>
       </c>
-      <c r="M29" s="5"/>
+      <c r="M29" s="5">
+        <v>10</v>
+      </c>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
@@ -2109,10 +2164,10 @@
       <c r="C30" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="14"/>
+      <c r="E30" s="13"/>
       <c r="F30" s="5">
         <v>5</v>
       </c>
@@ -2134,7 +2189,9 @@
       <c r="L30" s="9">
         <v>10</v>
       </c>
-      <c r="M30" s="5"/>
+      <c r="M30" s="5">
+        <v>10</v>
+      </c>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
@@ -2154,10 +2211,10 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="14"/>
+      <c r="E31" s="13"/>
       <c r="F31" s="5">
         <v>5</v>
       </c>
@@ -2179,7 +2236,9 @@
       <c r="L31" s="9">
         <v>10</v>
       </c>
-      <c r="M31" s="5"/>
+      <c r="M31" s="5">
+        <v>10</v>
+      </c>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
@@ -2190,47 +2249,47 @@
       <c r="U31" s="5"/>
     </row>
     <row r="32" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="18" t="s">
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
     </row>
     <row r="33" spans="1:5" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:U1"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="F32:U32"/>
     <mergeCell ref="J3:U4"/>
     <mergeCell ref="J5:U5"/>
@@ -2245,13 +2304,14 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="A32:E33"/>
-    <mergeCell ref="D1:U1"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
@@ -2259,7 +2319,6 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>

--- a/images/suwat-grade-1-2566.xlsx
+++ b/images/suwat-grade-1-2566.xlsx
@@ -646,46 +646,46 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -970,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,127 +997,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="23" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
     </row>
     <row r="2" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="J3" s="17" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="J3" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
     </row>
     <row r="4" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="18" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
     </row>
     <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="18" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
     </row>
     <row r="7" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1130,28 +1130,28 @@
       <c r="C8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="19" t="s">
+      <c r="E8" s="15"/>
+      <c r="F8" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
     </row>
     <row r="9" spans="1:21" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1163,10 +1163,10 @@
       <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="25"/>
+      <c r="D9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="16"/>
       <c r="F9" s="7" t="s">
         <v>60</v>
       </c>
@@ -1226,10 +1226,10 @@
       <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="5">
         <v>5</v>
       </c>
@@ -1273,10 +1273,10 @@
       <c r="C11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="5">
         <v>5</v>
       </c>
@@ -1320,10 +1320,10 @@
       <c r="C12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="5">
         <v>5</v>
       </c>
@@ -1367,10 +1367,10 @@
       <c r="C13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="5">
         <v>5</v>
       </c>
@@ -1414,10 +1414,10 @@
       <c r="C14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="5">
         <v>5</v>
       </c>
@@ -1461,10 +1461,10 @@
       <c r="C15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="5">
         <v>5</v>
       </c>
@@ -1508,10 +1508,10 @@
       <c r="C16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="13"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="5">
         <v>5</v>
       </c>
@@ -1555,10 +1555,10 @@
       <c r="C17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="13"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="5">
         <v>5</v>
       </c>
@@ -1602,10 +1602,10 @@
       <c r="C18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="13"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="5">
         <v>5</v>
       </c>
@@ -1649,10 +1649,10 @@
       <c r="C19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="13"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="5">
         <v>5</v>
       </c>
@@ -1696,10 +1696,10 @@
       <c r="C20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="13"/>
+      <c r="E20" s="17"/>
       <c r="F20" s="5">
         <v>5</v>
       </c>
@@ -1743,10 +1743,10 @@
       <c r="C21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="13"/>
+      <c r="E21" s="17"/>
       <c r="F21" s="5">
         <v>5</v>
       </c>
@@ -1790,10 +1790,10 @@
       <c r="C22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="13"/>
+      <c r="E22" s="17"/>
       <c r="F22" s="5">
         <v>5</v>
       </c>
@@ -1837,10 +1837,10 @@
       <c r="C23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="13"/>
+      <c r="E23" s="17"/>
       <c r="F23" s="5">
         <v>5</v>
       </c>
@@ -1884,10 +1884,10 @@
       <c r="C24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="13"/>
+      <c r="E24" s="17"/>
       <c r="F24" s="5">
         <v>5</v>
       </c>
@@ -1931,10 +1931,10 @@
       <c r="C25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="17"/>
       <c r="F25" s="5">
         <v>5</v>
       </c>
@@ -1978,10 +1978,10 @@
       <c r="C26" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="13"/>
+      <c r="E26" s="17"/>
       <c r="F26" s="5">
         <v>5</v>
       </c>
@@ -2025,10 +2025,10 @@
       <c r="C27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="13"/>
+      <c r="E27" s="17"/>
       <c r="F27" s="5">
         <v>5</v>
       </c>
@@ -2072,10 +2072,10 @@
       <c r="C28" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="13"/>
+      <c r="E28" s="17"/>
       <c r="F28" s="5">
         <v>5</v>
       </c>
@@ -2091,7 +2091,9 @@
       <c r="J28" s="5">
         <v>10</v>
       </c>
-      <c r="K28" s="5"/>
+      <c r="K28" s="5">
+        <v>10</v>
+      </c>
       <c r="L28" s="9">
         <v>10</v>
       </c>
@@ -2117,10 +2119,10 @@
       <c r="C29" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="13"/>
+      <c r="E29" s="17"/>
       <c r="F29" s="5">
         <v>5</v>
       </c>
@@ -2164,10 +2166,10 @@
       <c r="C30" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="13"/>
+      <c r="E30" s="17"/>
       <c r="F30" s="5">
         <v>5</v>
       </c>
@@ -2211,10 +2213,10 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="13"/>
+      <c r="E31" s="17"/>
       <c r="F31" s="5">
         <v>5</v>
       </c>
@@ -2249,46 +2251,55 @@
       <c r="U31" s="5"/>
     </row>
     <row r="32" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="16" t="s">
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
     </row>
     <row r="33" spans="1:5" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:U1"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F32:U32"/>
     <mergeCell ref="J3:U4"/>
@@ -2305,20 +2316,11 @@
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="A32:E33"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:U1"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>

--- a/images/suwat-grade-1-2566.xlsx
+++ b/images/suwat-grade-1-2566.xlsx
@@ -219,9 +219,6 @@
     <t>แบบฟอร์มการเช็คชื่อเข้าเรียน (5)</t>
   </si>
   <si>
-    <t>ทำงานวิจัยด้วย ChatDOC (10)</t>
-  </si>
-  <si>
     <t>จัดทำ Canva (Powerpoint) (10)</t>
   </si>
   <si>
@@ -229,6 +226,9 @@
   </si>
   <si>
     <t>แผนการสอนโดยใช้ AI (10)</t>
+  </si>
+  <si>
+    <t>จัดทำข้อสอบโดยใช้ ChatGPT (10)</t>
   </si>
 </sst>
 </file>
@@ -646,6 +646,36 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -656,36 +686,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -970,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,127 +997,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
     </row>
     <row r="2" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="J3" s="19" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="J3" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
     </row>
     <row r="4" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="20" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
     </row>
     <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="20" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
     </row>
     <row r="7" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1130,28 +1130,28 @@
       <c r="C8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="21" t="s">
+      <c r="E8" s="25"/>
+      <c r="F8" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
     </row>
     <row r="9" spans="1:21" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1163,10 +1163,10 @@
       <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="16"/>
+      <c r="D9" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="26"/>
       <c r="F9" s="7" t="s">
         <v>60</v>
       </c>
@@ -1183,16 +1183,16 @@
         <v>64</v>
       </c>
       <c r="K9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="M9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="N9" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="O9" s="8">
         <v>10</v>
@@ -1226,10 +1226,10 @@
       <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="17"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="5">
         <v>5</v>
       </c>
@@ -1273,10 +1273,10 @@
       <c r="C11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="17"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="5">
         <v>5</v>
       </c>
@@ -1320,10 +1320,10 @@
       <c r="C12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="5">
         <v>5</v>
       </c>
@@ -1367,10 +1367,10 @@
       <c r="C13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="13"/>
       <c r="F13" s="5">
         <v>5</v>
       </c>
@@ -1414,10 +1414,10 @@
       <c r="C14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="5">
         <v>5</v>
       </c>
@@ -1461,10 +1461,10 @@
       <c r="C15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="17"/>
+      <c r="E15" s="13"/>
       <c r="F15" s="5">
         <v>5</v>
       </c>
@@ -1508,10 +1508,10 @@
       <c r="C16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="17"/>
+      <c r="E16" s="13"/>
       <c r="F16" s="5">
         <v>5</v>
       </c>
@@ -1555,10 +1555,10 @@
       <c r="C17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="17"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="5">
         <v>5</v>
       </c>
@@ -1602,10 +1602,10 @@
       <c r="C18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="17"/>
+      <c r="E18" s="13"/>
       <c r="F18" s="5">
         <v>5</v>
       </c>
@@ -1649,10 +1649,10 @@
       <c r="C19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="17"/>
+      <c r="E19" s="13"/>
       <c r="F19" s="5">
         <v>5</v>
       </c>
@@ -1696,10 +1696,10 @@
       <c r="C20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="17"/>
+      <c r="E20" s="13"/>
       <c r="F20" s="5">
         <v>5</v>
       </c>
@@ -1743,10 +1743,10 @@
       <c r="C21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="17"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="5">
         <v>5</v>
       </c>
@@ -1790,10 +1790,10 @@
       <c r="C22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="17"/>
+      <c r="E22" s="13"/>
       <c r="F22" s="5">
         <v>5</v>
       </c>
@@ -1837,10 +1837,10 @@
       <c r="C23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="17"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="5">
         <v>5</v>
       </c>
@@ -1884,10 +1884,10 @@
       <c r="C24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="17"/>
+      <c r="E24" s="13"/>
       <c r="F24" s="5">
         <v>5</v>
       </c>
@@ -1931,10 +1931,10 @@
       <c r="C25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="17"/>
+      <c r="E25" s="13"/>
       <c r="F25" s="5">
         <v>5</v>
       </c>
@@ -1978,10 +1978,10 @@
       <c r="C26" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="17"/>
+      <c r="E26" s="13"/>
       <c r="F26" s="5">
         <v>5</v>
       </c>
@@ -2025,10 +2025,10 @@
       <c r="C27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="17"/>
+      <c r="E27" s="13"/>
       <c r="F27" s="5">
         <v>5</v>
       </c>
@@ -2072,10 +2072,10 @@
       <c r="C28" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="17"/>
+      <c r="E28" s="13"/>
       <c r="F28" s="5">
         <v>5</v>
       </c>
@@ -2119,10 +2119,10 @@
       <c r="C29" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="17"/>
+      <c r="E29" s="13"/>
       <c r="F29" s="5">
         <v>5</v>
       </c>
@@ -2166,10 +2166,10 @@
       <c r="C30" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="17"/>
+      <c r="E30" s="13"/>
       <c r="F30" s="5">
         <v>5</v>
       </c>
@@ -2213,10 +2213,10 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="17"/>
+      <c r="E31" s="13"/>
       <c r="F31" s="5">
         <v>5</v>
       </c>
@@ -2251,41 +2251,61 @@
       <c r="U31" s="5"/>
     </row>
     <row r="32" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="18" t="s">
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
     </row>
     <row r="33" spans="1:5" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:U1"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F32:U32"/>
+    <mergeCell ref="J3:U4"/>
+    <mergeCell ref="J5:U5"/>
+    <mergeCell ref="J6:U6"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F8:U8"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A32:E33"/>
+    <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D18:E18"/>
@@ -2301,26 +2321,6 @@
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F32:U32"/>
-    <mergeCell ref="J3:U4"/>
-    <mergeCell ref="J5:U5"/>
-    <mergeCell ref="J6:U6"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F8:U8"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A32:E33"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:U1"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>

--- a/images/suwat-grade-1-2566.xlsx
+++ b/images/suwat-grade-1-2566.xlsx
@@ -692,30 +692,6 @@
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
@@ -723,71 +699,95 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1123,8 +1123,8 @@
   </sheetPr>
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="X20" sqref="X20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1151,1553 +1151,1553 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7" t="s">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
     </row>
     <row r="2" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="J3" s="4" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="J3" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
     </row>
     <row r="4" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="5" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
     </row>
     <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="5" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
     </row>
     <row r="7" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14" t="s">
+      <c r="E8" s="15"/>
+      <c r="F8" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
     </row>
     <row r="9" spans="1:21" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19" t="s">
+      <c r="A9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="L9" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="M9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="N9" s="19" t="s">
+      <c r="N9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="O9" s="19" t="s">
+      <c r="O9" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P9" s="19" t="s">
+      <c r="P9" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="Q9" s="19" t="s">
+      <c r="Q9" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="R9" s="19" t="s">
+      <c r="R9" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="S9" s="22"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="24"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="20"/>
     </row>
     <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="25">
+      <c r="A10" s="10">
         <v>1</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="17">
-        <v>5</v>
-      </c>
-      <c r="G10" s="17">
-        <v>5</v>
-      </c>
-      <c r="H10" s="17">
-        <v>5</v>
-      </c>
-      <c r="I10" s="17">
-        <v>10</v>
-      </c>
-      <c r="J10" s="17">
-        <v>10</v>
-      </c>
-      <c r="K10" s="17">
-        <v>10</v>
-      </c>
-      <c r="L10" s="17">
-        <v>10</v>
-      </c>
-      <c r="M10" s="17">
-        <v>0</v>
-      </c>
-      <c r="N10" s="17">
-        <v>0</v>
-      </c>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17">
+      <c r="E10" s="17"/>
+      <c r="F10" s="6">
+        <v>5</v>
+      </c>
+      <c r="G10" s="6">
+        <v>5</v>
+      </c>
+      <c r="H10" s="6">
+        <v>5</v>
+      </c>
+      <c r="I10" s="6">
+        <v>10</v>
+      </c>
+      <c r="J10" s="6">
+        <v>10</v>
+      </c>
+      <c r="K10" s="6">
+        <v>10</v>
+      </c>
+      <c r="L10" s="6">
+        <v>10</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6">
         <f>O10/2</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="17">
+      <c r="Q10" s="6">
         <f>SUM(F10:N10,P10)</f>
         <v>55</v>
       </c>
-      <c r="R10" s="28" t="str">
+      <c r="R10" s="12" t="str">
         <f t="shared" ref="R10:R31" si="0">VLOOKUP(Q10,gradeTable,2)</f>
         <v>D+</v>
       </c>
-      <c r="S10" s="29"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="31"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="23"/>
     </row>
     <row r="11" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="25">
+      <c r="A11" s="10">
         <v>2</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="17">
-        <v>5</v>
-      </c>
-      <c r="G11" s="17">
-        <v>5</v>
-      </c>
-      <c r="H11" s="17">
-        <v>5</v>
-      </c>
-      <c r="I11" s="17">
-        <v>10</v>
-      </c>
-      <c r="J11" s="17">
-        <v>10</v>
-      </c>
-      <c r="K11" s="17">
-        <v>10</v>
-      </c>
-      <c r="L11" s="17">
-        <v>10</v>
-      </c>
-      <c r="M11" s="17">
-        <v>10</v>
-      </c>
-      <c r="N11" s="17">
-        <v>10</v>
-      </c>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17">
+      <c r="E11" s="17"/>
+      <c r="F11" s="6">
+        <v>5</v>
+      </c>
+      <c r="G11" s="6">
+        <v>5</v>
+      </c>
+      <c r="H11" s="6">
+        <v>5</v>
+      </c>
+      <c r="I11" s="6">
+        <v>10</v>
+      </c>
+      <c r="J11" s="6">
+        <v>10</v>
+      </c>
+      <c r="K11" s="6">
+        <v>10</v>
+      </c>
+      <c r="L11" s="6">
+        <v>10</v>
+      </c>
+      <c r="M11" s="6">
+        <v>10</v>
+      </c>
+      <c r="N11" s="6">
+        <v>10</v>
+      </c>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6">
         <f t="shared" ref="P11:P31" si="1">O11/2</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="17">
+      <c r="Q11" s="6">
         <f t="shared" ref="Q11:Q31" si="2">SUM(F11:N11,P11)</f>
         <v>75</v>
       </c>
-      <c r="R11" s="28" t="str">
+      <c r="R11" s="12" t="str">
         <f t="shared" si="0"/>
         <v>B+</v>
       </c>
-      <c r="S11" s="29"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="31"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="23"/>
     </row>
     <row r="12" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25">
+      <c r="A12" s="10">
         <v>3</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="17" t="s">
+      <c r="B12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="17">
-        <v>5</v>
-      </c>
-      <c r="G12" s="17">
-        <v>5</v>
-      </c>
-      <c r="H12" s="17">
-        <v>5</v>
-      </c>
-      <c r="I12" s="17">
-        <v>10</v>
-      </c>
-      <c r="J12" s="17">
-        <v>10</v>
-      </c>
-      <c r="K12" s="17">
-        <v>10</v>
-      </c>
-      <c r="L12" s="17">
-        <v>10</v>
-      </c>
-      <c r="M12" s="17">
-        <v>10</v>
-      </c>
-      <c r="N12" s="17">
-        <v>0</v>
-      </c>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17">
+      <c r="E12" s="17"/>
+      <c r="F12" s="6">
+        <v>5</v>
+      </c>
+      <c r="G12" s="6">
+        <v>5</v>
+      </c>
+      <c r="H12" s="6">
+        <v>5</v>
+      </c>
+      <c r="I12" s="6">
+        <v>10</v>
+      </c>
+      <c r="J12" s="6">
+        <v>10</v>
+      </c>
+      <c r="K12" s="6">
+        <v>10</v>
+      </c>
+      <c r="L12" s="6">
+        <v>10</v>
+      </c>
+      <c r="M12" s="6">
+        <v>10</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="17">
+      <c r="Q12" s="6">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="R12" s="28" t="str">
+      <c r="R12" s="12" t="str">
         <f t="shared" si="0"/>
         <v>C+</v>
       </c>
-      <c r="S12" s="29"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="31"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="23"/>
     </row>
     <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25">
+      <c r="A13" s="10">
         <v>4</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="17">
-        <v>5</v>
-      </c>
-      <c r="G13" s="17">
-        <v>5</v>
-      </c>
-      <c r="H13" s="17">
-        <v>5</v>
-      </c>
-      <c r="I13" s="17">
-        <v>10</v>
-      </c>
-      <c r="J13" s="17">
-        <v>10</v>
-      </c>
-      <c r="K13" s="17">
-        <v>10</v>
-      </c>
-      <c r="L13" s="17">
-        <v>10</v>
-      </c>
-      <c r="M13" s="17">
-        <v>0</v>
-      </c>
-      <c r="N13" s="17">
-        <v>0</v>
-      </c>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17">
+      <c r="E13" s="17"/>
+      <c r="F13" s="6">
+        <v>5</v>
+      </c>
+      <c r="G13" s="6">
+        <v>5</v>
+      </c>
+      <c r="H13" s="6">
+        <v>5</v>
+      </c>
+      <c r="I13" s="6">
+        <v>10</v>
+      </c>
+      <c r="J13" s="6">
+        <v>10</v>
+      </c>
+      <c r="K13" s="6">
+        <v>10</v>
+      </c>
+      <c r="L13" s="6">
+        <v>10</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="17">
+      <c r="Q13" s="6">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="R13" s="28" t="str">
+      <c r="R13" s="12" t="str">
         <f t="shared" si="0"/>
         <v>D+</v>
       </c>
-      <c r="S13" s="29"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="31"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="23"/>
     </row>
     <row r="14" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25">
-        <v>5</v>
-      </c>
-      <c r="B14" s="26" t="s">
+      <c r="A14" s="10">
+        <v>5</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="17">
-        <v>5</v>
-      </c>
-      <c r="G14" s="17">
-        <v>5</v>
-      </c>
-      <c r="H14" s="17">
-        <v>5</v>
-      </c>
-      <c r="I14" s="17">
-        <v>10</v>
-      </c>
-      <c r="J14" s="17">
-        <v>10</v>
-      </c>
-      <c r="K14" s="17">
-        <v>10</v>
-      </c>
-      <c r="L14" s="17">
-        <v>10</v>
-      </c>
-      <c r="M14" s="17">
-        <v>10</v>
-      </c>
-      <c r="N14" s="17">
-        <v>10</v>
-      </c>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17">
+      <c r="E14" s="17"/>
+      <c r="F14" s="6">
+        <v>5</v>
+      </c>
+      <c r="G14" s="6">
+        <v>5</v>
+      </c>
+      <c r="H14" s="6">
+        <v>5</v>
+      </c>
+      <c r="I14" s="6">
+        <v>10</v>
+      </c>
+      <c r="J14" s="6">
+        <v>10</v>
+      </c>
+      <c r="K14" s="6">
+        <v>10</v>
+      </c>
+      <c r="L14" s="6">
+        <v>10</v>
+      </c>
+      <c r="M14" s="6">
+        <v>10</v>
+      </c>
+      <c r="N14" s="6">
+        <v>10</v>
+      </c>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="17">
+      <c r="Q14" s="6">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="R14" s="28" t="str">
+      <c r="R14" s="12" t="str">
         <f t="shared" si="0"/>
         <v>B+</v>
       </c>
-      <c r="S14" s="29"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="31"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="23"/>
     </row>
     <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25">
+      <c r="A15" s="10">
         <v>6</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="17">
-        <v>5</v>
-      </c>
-      <c r="G15" s="17">
-        <v>5</v>
-      </c>
-      <c r="H15" s="17">
-        <v>5</v>
-      </c>
-      <c r="I15" s="17">
-        <v>10</v>
-      </c>
-      <c r="J15" s="17">
-        <v>10</v>
-      </c>
-      <c r="K15" s="17">
-        <v>10</v>
-      </c>
-      <c r="L15" s="17">
-        <v>10</v>
-      </c>
-      <c r="M15" s="17">
-        <v>10</v>
-      </c>
-      <c r="N15" s="17">
-        <v>10</v>
-      </c>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17">
+      <c r="E15" s="17"/>
+      <c r="F15" s="6">
+        <v>5</v>
+      </c>
+      <c r="G15" s="6">
+        <v>5</v>
+      </c>
+      <c r="H15" s="6">
+        <v>5</v>
+      </c>
+      <c r="I15" s="6">
+        <v>10</v>
+      </c>
+      <c r="J15" s="6">
+        <v>10</v>
+      </c>
+      <c r="K15" s="6">
+        <v>10</v>
+      </c>
+      <c r="L15" s="6">
+        <v>10</v>
+      </c>
+      <c r="M15" s="6">
+        <v>10</v>
+      </c>
+      <c r="N15" s="6">
+        <v>10</v>
+      </c>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="17">
+      <c r="Q15" s="6">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="R15" s="28" t="str">
+      <c r="R15" s="12" t="str">
         <f t="shared" si="0"/>
         <v>B+</v>
       </c>
-      <c r="S15" s="29"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="31"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="23"/>
     </row>
     <row r="16" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25">
+      <c r="A16" s="10">
         <v>7</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="17">
-        <v>5</v>
-      </c>
-      <c r="G16" s="17">
-        <v>5</v>
-      </c>
-      <c r="H16" s="17">
-        <v>5</v>
-      </c>
-      <c r="I16" s="17">
-        <v>10</v>
-      </c>
-      <c r="J16" s="17">
-        <v>10</v>
-      </c>
-      <c r="K16" s="17">
-        <v>10</v>
-      </c>
-      <c r="L16" s="17">
-        <v>10</v>
-      </c>
-      <c r="M16" s="17">
-        <v>10</v>
-      </c>
-      <c r="N16" s="17">
-        <v>10</v>
-      </c>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17">
+      <c r="E16" s="17"/>
+      <c r="F16" s="6">
+        <v>5</v>
+      </c>
+      <c r="G16" s="6">
+        <v>5</v>
+      </c>
+      <c r="H16" s="6">
+        <v>5</v>
+      </c>
+      <c r="I16" s="6">
+        <v>10</v>
+      </c>
+      <c r="J16" s="6">
+        <v>10</v>
+      </c>
+      <c r="K16" s="6">
+        <v>10</v>
+      </c>
+      <c r="L16" s="6">
+        <v>10</v>
+      </c>
+      <c r="M16" s="6">
+        <v>10</v>
+      </c>
+      <c r="N16" s="6">
+        <v>10</v>
+      </c>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="17">
+      <c r="Q16" s="6">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="R16" s="28" t="str">
+      <c r="R16" s="12" t="str">
         <f t="shared" si="0"/>
         <v>B+</v>
       </c>
-      <c r="S16" s="29"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="31"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="23"/>
     </row>
     <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25">
+      <c r="A17" s="10">
         <v>8</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="17">
-        <v>5</v>
-      </c>
-      <c r="G17" s="17">
-        <v>5</v>
-      </c>
-      <c r="H17" s="17">
-        <v>5</v>
-      </c>
-      <c r="I17" s="17">
-        <v>10</v>
-      </c>
-      <c r="J17" s="17">
-        <v>10</v>
-      </c>
-      <c r="K17" s="17">
-        <v>10</v>
-      </c>
-      <c r="L17" s="17">
-        <v>10</v>
-      </c>
-      <c r="M17" s="17">
-        <v>10</v>
-      </c>
-      <c r="N17" s="17">
-        <v>10</v>
-      </c>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17">
+      <c r="E17" s="17"/>
+      <c r="F17" s="6">
+        <v>5</v>
+      </c>
+      <c r="G17" s="6">
+        <v>5</v>
+      </c>
+      <c r="H17" s="6">
+        <v>5</v>
+      </c>
+      <c r="I17" s="6">
+        <v>10</v>
+      </c>
+      <c r="J17" s="6">
+        <v>10</v>
+      </c>
+      <c r="K17" s="6">
+        <v>10</v>
+      </c>
+      <c r="L17" s="6">
+        <v>10</v>
+      </c>
+      <c r="M17" s="6">
+        <v>10</v>
+      </c>
+      <c r="N17" s="6">
+        <v>10</v>
+      </c>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="17">
+      <c r="Q17" s="6">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="R17" s="28" t="str">
+      <c r="R17" s="12" t="str">
         <f t="shared" si="0"/>
         <v>B+</v>
       </c>
-      <c r="S17" s="29"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="31"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="23"/>
     </row>
     <row r="18" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25">
+      <c r="A18" s="10">
         <v>9</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="17">
-        <v>5</v>
-      </c>
-      <c r="G18" s="17">
-        <v>5</v>
-      </c>
-      <c r="H18" s="17">
-        <v>5</v>
-      </c>
-      <c r="I18" s="17">
-        <v>10</v>
-      </c>
-      <c r="J18" s="17">
-        <v>10</v>
-      </c>
-      <c r="K18" s="17">
-        <v>10</v>
-      </c>
-      <c r="L18" s="17">
-        <v>10</v>
-      </c>
-      <c r="M18" s="17">
-        <v>10</v>
-      </c>
-      <c r="N18" s="17">
-        <v>10</v>
-      </c>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17">
+      <c r="E18" s="17"/>
+      <c r="F18" s="6">
+        <v>5</v>
+      </c>
+      <c r="G18" s="6">
+        <v>5</v>
+      </c>
+      <c r="H18" s="6">
+        <v>5</v>
+      </c>
+      <c r="I18" s="6">
+        <v>10</v>
+      </c>
+      <c r="J18" s="6">
+        <v>10</v>
+      </c>
+      <c r="K18" s="6">
+        <v>10</v>
+      </c>
+      <c r="L18" s="6">
+        <v>10</v>
+      </c>
+      <c r="M18" s="6">
+        <v>10</v>
+      </c>
+      <c r="N18" s="6">
+        <v>10</v>
+      </c>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="17">
+      <c r="Q18" s="6">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="R18" s="28" t="str">
+      <c r="R18" s="12" t="str">
         <f t="shared" si="0"/>
         <v>B+</v>
       </c>
-      <c r="S18" s="29"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="31"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="23"/>
     </row>
     <row r="19" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25">
-        <v>10</v>
-      </c>
-      <c r="B19" s="26" t="s">
+      <c r="A19" s="10">
+        <v>10</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="17">
-        <v>5</v>
-      </c>
-      <c r="G19" s="17">
-        <v>5</v>
-      </c>
-      <c r="H19" s="17">
-        <v>5</v>
-      </c>
-      <c r="I19" s="17">
-        <v>10</v>
-      </c>
-      <c r="J19" s="17">
-        <v>10</v>
-      </c>
-      <c r="K19" s="17">
-        <v>10</v>
-      </c>
-      <c r="L19" s="17">
-        <v>10</v>
-      </c>
-      <c r="M19" s="17">
-        <v>10</v>
-      </c>
-      <c r="N19" s="17">
-        <v>0</v>
-      </c>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17">
+      <c r="E19" s="17"/>
+      <c r="F19" s="6">
+        <v>5</v>
+      </c>
+      <c r="G19" s="6">
+        <v>5</v>
+      </c>
+      <c r="H19" s="6">
+        <v>5</v>
+      </c>
+      <c r="I19" s="6">
+        <v>10</v>
+      </c>
+      <c r="J19" s="6">
+        <v>10</v>
+      </c>
+      <c r="K19" s="6">
+        <v>10</v>
+      </c>
+      <c r="L19" s="6">
+        <v>10</v>
+      </c>
+      <c r="M19" s="6">
+        <v>10</v>
+      </c>
+      <c r="N19" s="6">
+        <v>0</v>
+      </c>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="17">
+      <c r="Q19" s="6">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="R19" s="28" t="str">
+      <c r="R19" s="12" t="str">
         <f t="shared" si="0"/>
         <v>C+</v>
       </c>
-      <c r="S19" s="29"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="31"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="23"/>
     </row>
     <row r="20" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25">
+      <c r="A20" s="10">
         <v>11</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="17">
-        <v>5</v>
-      </c>
-      <c r="G20" s="17">
-        <v>5</v>
-      </c>
-      <c r="H20" s="17">
-        <v>5</v>
-      </c>
-      <c r="I20" s="17">
-        <v>10</v>
-      </c>
-      <c r="J20" s="17">
-        <v>10</v>
-      </c>
-      <c r="K20" s="17">
-        <v>10</v>
-      </c>
-      <c r="L20" s="17">
-        <v>10</v>
-      </c>
-      <c r="M20" s="17">
-        <v>10</v>
-      </c>
-      <c r="N20" s="17">
-        <v>10</v>
-      </c>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17">
+      <c r="E20" s="17"/>
+      <c r="F20" s="6">
+        <v>5</v>
+      </c>
+      <c r="G20" s="6">
+        <v>5</v>
+      </c>
+      <c r="H20" s="6">
+        <v>5</v>
+      </c>
+      <c r="I20" s="6">
+        <v>10</v>
+      </c>
+      <c r="J20" s="6">
+        <v>10</v>
+      </c>
+      <c r="K20" s="6">
+        <v>10</v>
+      </c>
+      <c r="L20" s="6">
+        <v>10</v>
+      </c>
+      <c r="M20" s="6">
+        <v>10</v>
+      </c>
+      <c r="N20" s="6">
+        <v>10</v>
+      </c>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="17">
+      <c r="Q20" s="6">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="R20" s="28" t="str">
+      <c r="R20" s="12" t="str">
         <f t="shared" si="0"/>
         <v>B+</v>
       </c>
-      <c r="S20" s="29"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="31"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="23"/>
     </row>
     <row r="21" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25">
+      <c r="A21" s="10">
         <v>12</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="17">
-        <v>5</v>
-      </c>
-      <c r="G21" s="17">
-        <v>5</v>
-      </c>
-      <c r="H21" s="17">
-        <v>5</v>
-      </c>
-      <c r="I21" s="17">
-        <v>10</v>
-      </c>
-      <c r="J21" s="17">
-        <v>10</v>
-      </c>
-      <c r="K21" s="17">
-        <v>10</v>
-      </c>
-      <c r="L21" s="17">
-        <v>10</v>
-      </c>
-      <c r="M21" s="17">
-        <v>10</v>
-      </c>
-      <c r="N21" s="17">
-        <v>0</v>
-      </c>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17">
+      <c r="E21" s="17"/>
+      <c r="F21" s="6">
+        <v>5</v>
+      </c>
+      <c r="G21" s="6">
+        <v>5</v>
+      </c>
+      <c r="H21" s="6">
+        <v>5</v>
+      </c>
+      <c r="I21" s="6">
+        <v>10</v>
+      </c>
+      <c r="J21" s="6">
+        <v>10</v>
+      </c>
+      <c r="K21" s="6">
+        <v>10</v>
+      </c>
+      <c r="L21" s="6">
+        <v>10</v>
+      </c>
+      <c r="M21" s="6">
+        <v>10</v>
+      </c>
+      <c r="N21" s="6">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="17">
+      <c r="Q21" s="6">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="R21" s="28" t="str">
+      <c r="R21" s="12" t="str">
         <f t="shared" si="0"/>
         <v>C+</v>
       </c>
-      <c r="S21" s="29"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="31"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="23"/>
     </row>
     <row r="22" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25">
+      <c r="A22" s="10">
         <v>13</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="17">
-        <v>5</v>
-      </c>
-      <c r="G22" s="17">
-        <v>5</v>
-      </c>
-      <c r="H22" s="17">
-        <v>5</v>
-      </c>
-      <c r="I22" s="17">
-        <v>10</v>
-      </c>
-      <c r="J22" s="17">
-        <v>10</v>
-      </c>
-      <c r="K22" s="17">
-        <v>10</v>
-      </c>
-      <c r="L22" s="17">
-        <v>10</v>
-      </c>
-      <c r="M22" s="17">
-        <v>10</v>
-      </c>
-      <c r="N22" s="17">
-        <v>10</v>
-      </c>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17">
+      <c r="E22" s="17"/>
+      <c r="F22" s="6">
+        <v>5</v>
+      </c>
+      <c r="G22" s="6">
+        <v>5</v>
+      </c>
+      <c r="H22" s="6">
+        <v>5</v>
+      </c>
+      <c r="I22" s="6">
+        <v>10</v>
+      </c>
+      <c r="J22" s="6">
+        <v>10</v>
+      </c>
+      <c r="K22" s="6">
+        <v>10</v>
+      </c>
+      <c r="L22" s="6">
+        <v>10</v>
+      </c>
+      <c r="M22" s="6">
+        <v>10</v>
+      </c>
+      <c r="N22" s="6">
+        <v>10</v>
+      </c>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="17">
+      <c r="Q22" s="6">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="R22" s="28" t="str">
+      <c r="R22" s="12" t="str">
         <f t="shared" si="0"/>
         <v>B+</v>
       </c>
-      <c r="S22" s="29"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="31"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="23"/>
     </row>
     <row r="23" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25">
+      <c r="A23" s="10">
         <v>14</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="17">
-        <v>5</v>
-      </c>
-      <c r="G23" s="17">
-        <v>5</v>
-      </c>
-      <c r="H23" s="17">
-        <v>5</v>
-      </c>
-      <c r="I23" s="17">
-        <v>10</v>
-      </c>
-      <c r="J23" s="17">
-        <v>10</v>
-      </c>
-      <c r="K23" s="17">
-        <v>10</v>
-      </c>
-      <c r="L23" s="17">
-        <v>10</v>
-      </c>
-      <c r="M23" s="17">
-        <v>10</v>
-      </c>
-      <c r="N23" s="17">
-        <v>10</v>
-      </c>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17">
+      <c r="E23" s="17"/>
+      <c r="F23" s="6">
+        <v>5</v>
+      </c>
+      <c r="G23" s="6">
+        <v>5</v>
+      </c>
+      <c r="H23" s="6">
+        <v>5</v>
+      </c>
+      <c r="I23" s="6">
+        <v>10</v>
+      </c>
+      <c r="J23" s="6">
+        <v>10</v>
+      </c>
+      <c r="K23" s="6">
+        <v>10</v>
+      </c>
+      <c r="L23" s="6">
+        <v>10</v>
+      </c>
+      <c r="M23" s="6">
+        <v>10</v>
+      </c>
+      <c r="N23" s="6">
+        <v>10</v>
+      </c>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="17">
+      <c r="Q23" s="6">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="R23" s="28" t="str">
+      <c r="R23" s="12" t="str">
         <f t="shared" si="0"/>
         <v>B+</v>
       </c>
-      <c r="S23" s="29"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="31"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="23"/>
     </row>
     <row r="24" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25">
+      <c r="A24" s="10">
         <v>15</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="17">
-        <v>5</v>
-      </c>
-      <c r="G24" s="17">
-        <v>5</v>
-      </c>
-      <c r="H24" s="17">
-        <v>5</v>
-      </c>
-      <c r="I24" s="17">
-        <v>10</v>
-      </c>
-      <c r="J24" s="17">
-        <v>10</v>
-      </c>
-      <c r="K24" s="17">
-        <v>10</v>
-      </c>
-      <c r="L24" s="17">
-        <v>10</v>
-      </c>
-      <c r="M24" s="17">
-        <v>10</v>
-      </c>
-      <c r="N24" s="17">
-        <v>10</v>
-      </c>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17">
+      <c r="E24" s="17"/>
+      <c r="F24" s="6">
+        <v>5</v>
+      </c>
+      <c r="G24" s="6">
+        <v>5</v>
+      </c>
+      <c r="H24" s="6">
+        <v>5</v>
+      </c>
+      <c r="I24" s="6">
+        <v>10</v>
+      </c>
+      <c r="J24" s="6">
+        <v>10</v>
+      </c>
+      <c r="K24" s="6">
+        <v>10</v>
+      </c>
+      <c r="L24" s="6">
+        <v>10</v>
+      </c>
+      <c r="M24" s="6">
+        <v>10</v>
+      </c>
+      <c r="N24" s="6">
+        <v>10</v>
+      </c>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="17">
+      <c r="Q24" s="6">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="R24" s="28" t="str">
+      <c r="R24" s="12" t="str">
         <f t="shared" si="0"/>
         <v>B+</v>
       </c>
-      <c r="S24" s="29"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="31"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="23"/>
     </row>
     <row r="25" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25">
+      <c r="A25" s="10">
         <v>16</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="17">
-        <v>5</v>
-      </c>
-      <c r="G25" s="17">
-        <v>0</v>
-      </c>
-      <c r="H25" s="17">
-        <v>5</v>
-      </c>
-      <c r="I25" s="17">
-        <v>10</v>
-      </c>
-      <c r="J25" s="17">
-        <v>10</v>
-      </c>
-      <c r="K25" s="17">
-        <v>10</v>
-      </c>
-      <c r="L25" s="17">
-        <v>10</v>
-      </c>
-      <c r="M25" s="17">
-        <v>10</v>
-      </c>
-      <c r="N25" s="17">
-        <v>10</v>
-      </c>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17">
+      <c r="E25" s="17"/>
+      <c r="F25" s="6">
+        <v>5</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0</v>
+      </c>
+      <c r="H25" s="6">
+        <v>5</v>
+      </c>
+      <c r="I25" s="6">
+        <v>10</v>
+      </c>
+      <c r="J25" s="6">
+        <v>10</v>
+      </c>
+      <c r="K25" s="6">
+        <v>10</v>
+      </c>
+      <c r="L25" s="6">
+        <v>10</v>
+      </c>
+      <c r="M25" s="6">
+        <v>10</v>
+      </c>
+      <c r="N25" s="6">
+        <v>10</v>
+      </c>
+      <c r="O25" s="6">
+        <v>30</v>
+      </c>
+      <c r="P25" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="17">
+        <v>15</v>
+      </c>
+      <c r="Q25" s="6">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="R25" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="S25" s="21"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="23"/>
+    </row>
+    <row r="26" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
+        <v>17</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="6">
+        <v>5</v>
+      </c>
+      <c r="G26" s="6">
+        <v>5</v>
+      </c>
+      <c r="H26" s="6">
+        <v>5</v>
+      </c>
+      <c r="I26" s="6">
+        <v>10</v>
+      </c>
+      <c r="J26" s="6">
+        <v>10</v>
+      </c>
+      <c r="K26" s="6">
+        <v>10</v>
+      </c>
+      <c r="L26" s="6">
+        <v>10</v>
+      </c>
+      <c r="M26" s="6">
+        <v>10</v>
+      </c>
+      <c r="N26" s="6">
+        <v>10</v>
+      </c>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="6">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="R26" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>B+</v>
+      </c>
+      <c r="S26" s="21"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="23"/>
+    </row>
+    <row r="27" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
+        <v>18</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="6">
+        <v>5</v>
+      </c>
+      <c r="G27" s="6">
+        <v>5</v>
+      </c>
+      <c r="H27" s="6">
+        <v>5</v>
+      </c>
+      <c r="I27" s="6">
+        <v>10</v>
+      </c>
+      <c r="J27" s="6">
+        <v>10</v>
+      </c>
+      <c r="K27" s="6">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6">
+        <v>10</v>
+      </c>
+      <c r="M27" s="6">
+        <v>10</v>
+      </c>
+      <c r="N27" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="6">
+        <f t="shared" si="2"/>
+        <v>68.5</v>
+      </c>
+      <c r="R27" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>C+</v>
+      </c>
+      <c r="S27" s="21"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="23"/>
+    </row>
+    <row r="28" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="10">
+        <v>19</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="6">
+        <v>5</v>
+      </c>
+      <c r="G28" s="6">
+        <v>5</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0</v>
+      </c>
+      <c r="I28" s="6">
+        <v>10</v>
+      </c>
+      <c r="J28" s="6">
+        <v>10</v>
+      </c>
+      <c r="K28" s="6">
+        <v>10</v>
+      </c>
+      <c r="L28" s="6">
+        <v>10</v>
+      </c>
+      <c r="M28" s="6">
+        <v>10</v>
+      </c>
+      <c r="N28" s="6">
+        <v>10</v>
+      </c>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="6">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="R25" s="28" t="str">
+      <c r="R28" s="12" t="str">
         <f t="shared" si="0"/>
         <v>B</v>
       </c>
-      <c r="S25" s="29"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="31"/>
-    </row>
-    <row r="26" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25">
-        <v>17</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="27" t="s">
+      <c r="S28" s="21"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="23"/>
+    </row>
+    <row r="29" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="10">
+        <v>20</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="17">
-        <v>5</v>
-      </c>
-      <c r="G26" s="17">
-        <v>5</v>
-      </c>
-      <c r="H26" s="17">
-        <v>5</v>
-      </c>
-      <c r="I26" s="17">
-        <v>10</v>
-      </c>
-      <c r="J26" s="17">
-        <v>10</v>
-      </c>
-      <c r="K26" s="17">
-        <v>10</v>
-      </c>
-      <c r="L26" s="17">
-        <v>10</v>
-      </c>
-      <c r="M26" s="17">
-        <v>10</v>
-      </c>
-      <c r="N26" s="17">
-        <v>10</v>
-      </c>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17">
+      <c r="E29" s="17"/>
+      <c r="F29" s="6">
+        <v>5</v>
+      </c>
+      <c r="G29" s="6">
+        <v>5</v>
+      </c>
+      <c r="H29" s="6">
+        <v>5</v>
+      </c>
+      <c r="I29" s="6">
+        <v>10</v>
+      </c>
+      <c r="J29" s="6">
+        <v>10</v>
+      </c>
+      <c r="K29" s="6">
+        <v>10</v>
+      </c>
+      <c r="L29" s="6">
+        <v>10</v>
+      </c>
+      <c r="M29" s="6">
+        <v>10</v>
+      </c>
+      <c r="N29" s="6">
+        <v>10</v>
+      </c>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="17">
+      <c r="Q29" s="6">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="R26" s="28" t="str">
+      <c r="R29" s="12" t="str">
         <f t="shared" si="0"/>
         <v>B+</v>
       </c>
-      <c r="S26" s="29"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="31"/>
-    </row>
-    <row r="27" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25">
-        <v>18</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="27" t="s">
+      <c r="S29" s="21"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="23"/>
+    </row>
+    <row r="30" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="10">
+        <v>21</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="17">
-        <v>5</v>
-      </c>
-      <c r="G27" s="17">
-        <v>5</v>
-      </c>
-      <c r="H27" s="17">
-        <v>5</v>
-      </c>
-      <c r="I27" s="17">
-        <v>10</v>
-      </c>
-      <c r="J27" s="17">
-        <v>10</v>
-      </c>
-      <c r="K27" s="17">
-        <v>10</v>
-      </c>
-      <c r="L27" s="17">
-        <v>10</v>
-      </c>
-      <c r="M27" s="17">
-        <v>10</v>
-      </c>
-      <c r="N27" s="17">
-        <v>3.5</v>
-      </c>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17">
+      <c r="E30" s="17"/>
+      <c r="F30" s="6">
+        <v>5</v>
+      </c>
+      <c r="G30" s="6">
+        <v>5</v>
+      </c>
+      <c r="H30" s="6">
+        <v>5</v>
+      </c>
+      <c r="I30" s="6">
+        <v>10</v>
+      </c>
+      <c r="J30" s="6">
+        <v>10</v>
+      </c>
+      <c r="K30" s="6">
+        <v>10</v>
+      </c>
+      <c r="L30" s="6">
+        <v>10</v>
+      </c>
+      <c r="M30" s="6">
+        <v>10</v>
+      </c>
+      <c r="N30" s="6">
+        <v>10</v>
+      </c>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="17">
-        <f t="shared" si="2"/>
-        <v>68.5</v>
-      </c>
-      <c r="R27" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>C+</v>
-      </c>
-      <c r="S27" s="29"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="31"/>
-    </row>
-    <row r="28" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="25">
-        <v>19</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="17">
-        <v>5</v>
-      </c>
-      <c r="G28" s="17">
-        <v>5</v>
-      </c>
-      <c r="H28" s="17">
-        <v>0</v>
-      </c>
-      <c r="I28" s="17">
-        <v>10</v>
-      </c>
-      <c r="J28" s="17">
-        <v>10</v>
-      </c>
-      <c r="K28" s="17">
-        <v>10</v>
-      </c>
-      <c r="L28" s="17">
-        <v>10</v>
-      </c>
-      <c r="M28" s="17">
-        <v>10</v>
-      </c>
-      <c r="N28" s="17">
-        <v>10</v>
-      </c>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="17">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="R28" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>B</v>
-      </c>
-      <c r="S28" s="29"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="31"/>
-    </row>
-    <row r="29" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="25">
-        <v>20</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="17">
-        <v>5</v>
-      </c>
-      <c r="G29" s="17">
-        <v>5</v>
-      </c>
-      <c r="H29" s="17">
-        <v>5</v>
-      </c>
-      <c r="I29" s="17">
-        <v>10</v>
-      </c>
-      <c r="J29" s="17">
-        <v>10</v>
-      </c>
-      <c r="K29" s="17">
-        <v>10</v>
-      </c>
-      <c r="L29" s="17">
-        <v>10</v>
-      </c>
-      <c r="M29" s="17">
-        <v>10</v>
-      </c>
-      <c r="N29" s="17">
-        <v>10</v>
-      </c>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="17">
+      <c r="Q30" s="6">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="R29" s="28" t="str">
+      <c r="R30" s="12" t="str">
         <f t="shared" si="0"/>
         <v>B+</v>
       </c>
-      <c r="S29" s="29"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="31"/>
-    </row>
-    <row r="30" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25">
-        <v>21</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="27" t="s">
+      <c r="S30" s="21"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="23"/>
+    </row>
+    <row r="31" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="10">
+        <v>22</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="17">
-        <v>5</v>
-      </c>
-      <c r="G30" s="17">
-        <v>5</v>
-      </c>
-      <c r="H30" s="17">
-        <v>5</v>
-      </c>
-      <c r="I30" s="17">
-        <v>10</v>
-      </c>
-      <c r="J30" s="17">
-        <v>10</v>
-      </c>
-      <c r="K30" s="17">
-        <v>10</v>
-      </c>
-      <c r="L30" s="17">
-        <v>10</v>
-      </c>
-      <c r="M30" s="17">
-        <v>10</v>
-      </c>
-      <c r="N30" s="17">
-        <v>10</v>
-      </c>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17">
+      <c r="E31" s="17"/>
+      <c r="F31" s="6">
+        <v>5</v>
+      </c>
+      <c r="G31" s="6">
+        <v>5</v>
+      </c>
+      <c r="H31" s="6">
+        <v>5</v>
+      </c>
+      <c r="I31" s="6">
+        <v>10</v>
+      </c>
+      <c r="J31" s="6">
+        <v>10</v>
+      </c>
+      <c r="K31" s="6">
+        <v>10</v>
+      </c>
+      <c r="L31" s="6">
+        <v>10</v>
+      </c>
+      <c r="M31" s="6">
+        <v>10</v>
+      </c>
+      <c r="N31" s="6">
+        <v>10</v>
+      </c>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="17">
+      <c r="Q31" s="6">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="R30" s="28" t="str">
+      <c r="R31" s="12" t="str">
         <f t="shared" si="0"/>
         <v>B+</v>
       </c>
-      <c r="S30" s="29"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="31"/>
-    </row>
-    <row r="31" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25">
-        <v>22</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="17">
-        <v>5</v>
-      </c>
-      <c r="G31" s="17">
-        <v>5</v>
-      </c>
-      <c r="H31" s="17">
-        <v>5</v>
-      </c>
-      <c r="I31" s="17">
-        <v>10</v>
-      </c>
-      <c r="J31" s="17">
-        <v>10</v>
-      </c>
-      <c r="K31" s="17">
-        <v>10</v>
-      </c>
-      <c r="L31" s="17">
-        <v>10</v>
-      </c>
-      <c r="M31" s="17">
-        <v>10</v>
-      </c>
-      <c r="N31" s="17">
-        <v>10</v>
-      </c>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="17">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="R31" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>B+</v>
-      </c>
-      <c r="S31" s="32"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="34"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="26"/>
     </row>
     <row r="32" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="9" t="s">
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27"/>
     </row>
     <row r="33" spans="1:21" ht="0.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:U1"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="S9:U31"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="F32:U32"/>
     <mergeCell ref="J3:U4"/>
     <mergeCell ref="J5:U5"/>
@@ -2714,6 +2714,12 @@
     <mergeCell ref="A32:E33"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:U1"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="S9:U31"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
@@ -2724,10 +2730,6 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D11:E11"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/images/suwat-grade-1-2566.xlsx
+++ b/images/suwat-grade-1-2566.xlsx
@@ -1123,8 +1123,8 @@
   </sheetPr>
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1143,7 +1143,7 @@
     <col min="14" max="14" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3.42578125" style="1" customWidth="1"/>
     <col min="16" max="16" width="3.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="3.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="3.5703125" style="1" customWidth="1"/>
     <col min="20" max="20" width="3.42578125" style="1" customWidth="1"/>
     <col min="21" max="21" width="3.5703125" style="1" customWidth="1"/>
@@ -1405,18 +1405,20 @@
       <c r="N10" s="6">
         <v>0</v>
       </c>
-      <c r="O10" s="6"/>
+      <c r="O10" s="6">
+        <v>19</v>
+      </c>
       <c r="P10" s="6">
         <f>O10/2</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="Q10" s="6">
         <f>SUM(F10:N10,P10)</f>
-        <v>55</v>
+        <v>64.5</v>
       </c>
       <c r="R10" s="12" t="str">
         <f t="shared" ref="R10:R31" si="0">VLOOKUP(Q10,gradeTable,2)</f>
-        <v>D+</v>
+        <v>C</v>
       </c>
       <c r="S10" s="21"/>
       <c r="T10" s="22"/>
@@ -1579,18 +1581,20 @@
       <c r="N13" s="6">
         <v>0</v>
       </c>
-      <c r="O13" s="6"/>
+      <c r="O13" s="6">
+        <v>28</v>
+      </c>
       <c r="P13" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q13" s="6">
         <f t="shared" si="2"/>
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="R13" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>D+</v>
+        <v>C+</v>
       </c>
       <c r="S13" s="21"/>
       <c r="T13" s="22"/>
@@ -2732,7 +2736,7 @@
     <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>

--- a/images/suwat-grade-1-2566.xlsx
+++ b/images/suwat-grade-1-2566.xlsx
@@ -1123,8 +1123,8 @@
   </sheetPr>
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1142,8 +1142,7 @@
     <col min="13" max="13" width="3.42578125" style="1" customWidth="1"/>
     <col min="14" max="14" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="3.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="3.5703125" style="1" customWidth="1"/>
     <col min="20" max="20" width="3.42578125" style="1" customWidth="1"/>
     <col min="21" max="21" width="3.5703125" style="1" customWidth="1"/>
@@ -1641,18 +1640,20 @@
       <c r="N14" s="6">
         <v>10</v>
       </c>
-      <c r="O14" s="6"/>
+      <c r="O14" s="6">
+        <v>41</v>
+      </c>
       <c r="P14" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="Q14" s="6">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>95.5</v>
       </c>
       <c r="R14" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="S14" s="21"/>
       <c r="T14" s="22"/>
@@ -1931,18 +1932,20 @@
       <c r="N19" s="6">
         <v>0</v>
       </c>
-      <c r="O19" s="6"/>
+      <c r="O19" s="6">
+        <v>28</v>
+      </c>
       <c r="P19" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q19" s="6">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="R19" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>C+</v>
+        <v>B+</v>
       </c>
       <c r="S19" s="21"/>
       <c r="T19" s="22"/>
@@ -2221,18 +2224,20 @@
       <c r="N24" s="6">
         <v>10</v>
       </c>
-      <c r="O24" s="6"/>
+      <c r="O24" s="6">
+        <v>40</v>
+      </c>
       <c r="P24" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q24" s="6">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="R24" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="S24" s="21"/>
       <c r="T24" s="22"/>
@@ -2455,18 +2460,20 @@
       <c r="N28" s="6">
         <v>10</v>
       </c>
-      <c r="O28" s="6"/>
+      <c r="O28" s="6">
+        <v>25</v>
+      </c>
       <c r="P28" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Q28" s="6">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>82.5</v>
       </c>
       <c r="R28" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="S28" s="21"/>
       <c r="T28" s="22"/>
@@ -2571,18 +2578,20 @@
       <c r="N30" s="6">
         <v>10</v>
       </c>
-      <c r="O30" s="6"/>
+      <c r="O30" s="6">
+        <v>38</v>
+      </c>
       <c r="P30" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Q30" s="6">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="R30" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="S30" s="21"/>
       <c r="T30" s="22"/>
@@ -2629,18 +2638,20 @@
       <c r="N31" s="6">
         <v>10</v>
       </c>
-      <c r="O31" s="6"/>
+      <c r="O31" s="6">
+        <v>40</v>
+      </c>
       <c r="P31" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q31" s="6">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="R31" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="S31" s="24"/>
       <c r="T31" s="25"/>
@@ -2736,7 +2747,7 @@
     <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>

--- a/images/suwat-grade-1-2566.xlsx
+++ b/images/suwat-grade-1-2566.xlsx
@@ -1123,8 +1123,8 @@
   </sheetPr>
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1464,18 +1464,20 @@
       <c r="N11" s="6">
         <v>10</v>
       </c>
-      <c r="O11" s="6"/>
+      <c r="O11" s="6">
+        <v>28</v>
+      </c>
       <c r="P11" s="6">
         <f t="shared" ref="P11:P31" si="1">O11/2</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q11" s="6">
         <f t="shared" ref="Q11:Q31" si="2">SUM(F11:N11,P11)</f>
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="R11" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="S11" s="21"/>
       <c r="T11" s="22"/>
@@ -1522,18 +1524,20 @@
       <c r="N12" s="6">
         <v>0</v>
       </c>
-      <c r="O12" s="6"/>
+      <c r="O12" s="6">
+        <v>30</v>
+      </c>
       <c r="P12" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="6">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="R12" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>C+</v>
+        <v>A</v>
       </c>
       <c r="S12" s="21"/>
       <c r="T12" s="22"/>
@@ -1700,18 +1704,20 @@
       <c r="N15" s="6">
         <v>10</v>
       </c>
-      <c r="O15" s="6"/>
+      <c r="O15" s="6">
+        <v>34</v>
+      </c>
       <c r="P15" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Q15" s="6">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="R15" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="S15" s="21"/>
       <c r="T15" s="22"/>
@@ -1758,18 +1764,20 @@
       <c r="N16" s="6">
         <v>10</v>
       </c>
-      <c r="O16" s="6"/>
+      <c r="O16" s="6">
+        <v>30</v>
+      </c>
       <c r="P16" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q16" s="6">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="R16" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="S16" s="21"/>
       <c r="T16" s="22"/>
@@ -1816,18 +1824,20 @@
       <c r="N17" s="6">
         <v>10</v>
       </c>
-      <c r="O17" s="6"/>
+      <c r="O17" s="6">
+        <v>26</v>
+      </c>
       <c r="P17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q17" s="6">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="R17" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="S17" s="21"/>
       <c r="T17" s="22"/>
@@ -1874,18 +1884,20 @@
       <c r="N18" s="6">
         <v>10</v>
       </c>
-      <c r="O18" s="6"/>
+      <c r="O18" s="6">
+        <v>39</v>
+      </c>
       <c r="P18" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Q18" s="6">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>94.5</v>
       </c>
       <c r="R18" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="S18" s="21"/>
       <c r="T18" s="22"/>
@@ -1992,18 +2004,20 @@
       <c r="N20" s="6">
         <v>10</v>
       </c>
-      <c r="O20" s="6"/>
+      <c r="O20" s="6">
+        <v>30</v>
+      </c>
       <c r="P20" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q20" s="6">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="R20" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="S20" s="21"/>
       <c r="T20" s="22"/>
@@ -2050,18 +2064,20 @@
       <c r="N21" s="6">
         <v>0</v>
       </c>
-      <c r="O21" s="6"/>
+      <c r="O21" s="6">
+        <v>31</v>
+      </c>
       <c r="P21" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Q21" s="6">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>80.5</v>
       </c>
       <c r="R21" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>C+</v>
+        <v>A</v>
       </c>
       <c r="S21" s="21"/>
       <c r="T21" s="22"/>
@@ -2108,18 +2124,20 @@
       <c r="N22" s="6">
         <v>10</v>
       </c>
-      <c r="O22" s="6"/>
+      <c r="O22" s="6">
+        <v>39</v>
+      </c>
       <c r="P22" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Q22" s="6">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>94.5</v>
       </c>
       <c r="R22" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="S22" s="21"/>
       <c r="T22" s="22"/>
@@ -2166,18 +2184,20 @@
       <c r="N23" s="6">
         <v>10</v>
       </c>
-      <c r="O23" s="6"/>
+      <c r="O23" s="6">
+        <v>33</v>
+      </c>
       <c r="P23" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Q23" s="6">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>91.5</v>
       </c>
       <c r="R23" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="S23" s="21"/>
       <c r="T23" s="22"/>
@@ -2344,18 +2364,20 @@
       <c r="N26" s="6">
         <v>10</v>
       </c>
-      <c r="O26" s="6"/>
+      <c r="O26" s="6">
+        <v>19</v>
+      </c>
       <c r="P26" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="Q26" s="6">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>84.5</v>
       </c>
       <c r="R26" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="S26" s="21"/>
       <c r="T26" s="22"/>
@@ -2402,18 +2424,20 @@
       <c r="N27" s="6">
         <v>3.5</v>
       </c>
-      <c r="O27" s="6"/>
+      <c r="O27" s="6">
+        <v>30</v>
+      </c>
       <c r="P27" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q27" s="6">
         <f t="shared" si="2"/>
-        <v>68.5</v>
+        <v>83.5</v>
       </c>
       <c r="R27" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>C+</v>
+        <v>A</v>
       </c>
       <c r="S27" s="21"/>
       <c r="T27" s="22"/>
@@ -2520,18 +2544,20 @@
       <c r="N29" s="6">
         <v>10</v>
       </c>
-      <c r="O29" s="6"/>
+      <c r="O29" s="6">
+        <v>41</v>
+      </c>
       <c r="P29" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="Q29" s="6">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>95.5</v>
       </c>
       <c r="R29" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="S29" s="21"/>
       <c r="T29" s="22"/>
@@ -2747,7 +2773,7 @@
     <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
